--- a/Assignments/A4/PhoneSurvey.xlsx
+++ b/Assignments/A4/PhoneSurvey.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26230"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rwe/Documents/Economics/Teaching/MACSS/MACS30000/Fall2018/Assignments/A4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hsy/Documents/2018Autumn/Perspective/persp-analysis_A18/Assignments/A4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFAB015-092A-7748-BEF6-F563EAB7DF11}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="720" windowWidth="25440" windowHeight="14420" xr2:uid="{BDE4B2C5-7C5C-EF4E-A801-B6684FDFD484}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Survey Response sheet for MACS 30000 (Autumn 2018), Assignment 4</t>
   </si>
@@ -44,19 +46,59 @@
   <si>
     <t>Sample ID</t>
   </si>
+  <si>
+    <t>Dem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not Vote</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repub</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repub</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repub</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repub</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;___&quot;\-000\-0000"/>
+    <numFmt numFmtId="176" formatCode="&quot;___&quot;\-000\-0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -64,7 +106,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -91,14 +139,14 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -409,11 +457,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C33F710-E8FA-AE4D-9C3A-3CA0D51B8626}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -452,6 +500,9 @@
       <c r="B4" s="1">
         <v>4310454</v>
       </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -460,6 +511,9 @@
       <c r="B5" s="1">
         <v>6920338</v>
       </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -468,6 +522,9 @@
       <c r="B6" s="1">
         <v>6918070</v>
       </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -476,6 +533,9 @@
       <c r="B7" s="1">
         <v>3605305</v>
       </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -484,6 +544,9 @@
       <c r="B8" s="1">
         <v>8892229</v>
       </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -492,6 +555,9 @@
       <c r="B9" s="1">
         <v>3421805</v>
       </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -500,6 +566,9 @@
       <c r="B10" s="1">
         <v>4172517</v>
       </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -508,6 +577,9 @@
       <c r="B11" s="1">
         <v>8613530</v>
       </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -516,6 +588,9 @@
       <c r="B12" s="1">
         <v>5087341</v>
       </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -524,6 +599,9 @@
       <c r="B13" s="1">
         <v>2438163</v>
       </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -532,6 +610,9 @@
       <c r="B14" s="1">
         <v>4037270</v>
       </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -540,6 +621,9 @@
       <c r="B15" s="1">
         <v>5652672</v>
       </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -548,800 +632,1160 @@
       <c r="B16" s="1">
         <v>7393216</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" s="1">
         <v>7229394</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" s="1">
         <v>5151305</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" s="1">
         <v>4877748</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" s="1">
         <v>4265519</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
       <c r="B21" s="1">
         <v>6516979</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
       <c r="B22" s="1">
         <v>8565245</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
       <c r="B23" s="1">
         <v>8407755</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24" s="1">
         <v>2709233</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" s="1">
         <v>9181750</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
       <c r="B26" s="1">
         <v>4860050</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
       <c r="B27" s="1">
         <v>8194429</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
       <c r="B28" s="1">
         <v>7497881</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
       <c r="B29" s="1">
         <v>6978928</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
       <c r="B30" s="1">
         <v>4670541</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
       <c r="B31" s="1">
         <v>8642160</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
       <c r="B32" s="1">
         <v>3109656</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
       <c r="B33" s="1">
         <v>2536524</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>31</v>
       </c>
       <c r="B34" s="1">
         <v>4159593</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>32</v>
       </c>
       <c r="B35" s="1">
         <v>9156659</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>33</v>
       </c>
       <c r="B36" s="1">
         <v>2630658</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>34</v>
       </c>
       <c r="B37" s="1">
         <v>3103116</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>35</v>
       </c>
       <c r="B38" s="1">
         <v>3526990</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>36</v>
       </c>
       <c r="B39" s="1">
         <v>8903095</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>37</v>
       </c>
       <c r="B40" s="1">
         <v>8761170</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>38</v>
       </c>
       <c r="B41" s="1">
         <v>9173160</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>39</v>
       </c>
       <c r="B42" s="1">
         <v>8450958</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>40</v>
       </c>
       <c r="B43" s="1">
         <v>5849527</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>41</v>
       </c>
       <c r="B44" s="1">
         <v>9874505</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>42</v>
       </c>
       <c r="B45" s="1">
         <v>5080490</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>43</v>
       </c>
       <c r="B46" s="1">
         <v>7459046</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>44</v>
       </c>
       <c r="B47" s="1">
         <v>4455876</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>45</v>
       </c>
       <c r="B48" s="1">
         <v>9744213</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>46</v>
       </c>
       <c r="B49" s="1">
         <v>3099226</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>47</v>
       </c>
       <c r="B50" s="1">
         <v>7441722</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>48</v>
       </c>
       <c r="B51" s="1">
         <v>6900989</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>49</v>
       </c>
       <c r="B52" s="1">
         <v>8572189</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>50</v>
       </c>
       <c r="B53" s="1">
         <v>7154223</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>51</v>
       </c>
       <c r="B54" s="1">
         <v>6231491</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>52</v>
       </c>
       <c r="B55" s="1">
         <v>3660183</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>53</v>
       </c>
       <c r="B56" s="1">
         <v>5014048</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>54</v>
       </c>
       <c r="B57" s="1">
         <v>3395385</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>55</v>
       </c>
       <c r="B58" s="1">
         <v>5220200</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>56</v>
       </c>
       <c r="B59" s="1">
         <v>4510321</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>57</v>
       </c>
       <c r="B60" s="1">
         <v>8189798</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>58</v>
       </c>
       <c r="B61" s="1">
         <v>2687999</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>59</v>
       </c>
       <c r="B62" s="1">
         <v>9551750</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>60</v>
       </c>
       <c r="B63" s="1">
         <v>3894955</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>61</v>
       </c>
       <c r="B64" s="1">
         <v>3018578</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>62</v>
       </c>
       <c r="B65" s="1">
         <v>2758398</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>63</v>
       </c>
       <c r="B66" s="1">
         <v>3891447</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>64</v>
       </c>
       <c r="B67" s="1">
         <v>2661373</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>65</v>
       </c>
       <c r="B68" s="1">
         <v>6190466</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>66</v>
       </c>
       <c r="B69" s="1">
         <v>4491947</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>67</v>
       </c>
       <c r="B70" s="1">
         <v>3008542</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>68</v>
       </c>
       <c r="B71" s="1">
         <v>9177932</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>69</v>
       </c>
       <c r="B72" s="1">
         <v>5434580</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>70</v>
       </c>
       <c r="B73" s="1">
         <v>5588372</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>71</v>
       </c>
       <c r="B74" s="1">
         <v>6528460</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>72</v>
       </c>
       <c r="B75" s="1">
         <v>5080362</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>73</v>
       </c>
       <c r="B76" s="1">
         <v>5807911</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>74</v>
       </c>
       <c r="B77" s="1">
         <v>3656122</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>75</v>
       </c>
       <c r="B78" s="1">
         <v>8509733</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>76</v>
       </c>
       <c r="B79" s="1">
         <v>6573086</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>77</v>
       </c>
       <c r="B80" s="1">
         <v>7515206</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>78</v>
       </c>
       <c r="B81" s="1">
         <v>3733268</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>79</v>
       </c>
       <c r="B82" s="1">
         <v>6948908</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>80</v>
       </c>
       <c r="B83" s="1">
         <v>4597991</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>81</v>
       </c>
       <c r="B84" s="1">
         <v>5010584</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>82</v>
       </c>
       <c r="B85" s="1">
         <v>7150555</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>83</v>
       </c>
       <c r="B86" s="1">
         <v>2318224</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>84</v>
       </c>
       <c r="B87" s="1">
         <v>5894130</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>85</v>
       </c>
       <c r="B88" s="1">
         <v>3241426</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>86</v>
       </c>
       <c r="B89" s="1">
         <v>9364559</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>87</v>
       </c>
       <c r="B90" s="1">
         <v>9980970</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>88</v>
       </c>
       <c r="B91" s="1">
         <v>4325683</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>89</v>
       </c>
       <c r="B92" s="1">
         <v>3963502</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>90</v>
       </c>
       <c r="B93" s="1">
         <v>7446604</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>91</v>
       </c>
       <c r="B94" s="1">
         <v>8970051</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>92</v>
       </c>
       <c r="B95" s="1">
         <v>6571851</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>93</v>
       </c>
       <c r="B96" s="1">
         <v>2818481</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>94</v>
       </c>
       <c r="B97" s="1">
         <v>9592068</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>95</v>
       </c>
       <c r="B98" s="1">
         <v>4182313</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>96</v>
       </c>
       <c r="B99" s="1">
         <v>3881508</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>97</v>
       </c>
       <c r="B100" s="1">
         <v>3347696</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>98</v>
       </c>
       <c r="B101" s="1">
         <v>2892356</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>99</v>
       </c>
       <c r="B102" s="1">
         <v>8330415</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>100</v>
       </c>
       <c r="B103" s="1">
         <v>4819145</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>101</v>
       </c>
       <c r="B104" s="1">
         <v>8775030</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>102</v>
       </c>
       <c r="B105" s="1">
         <v>7091051</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>103</v>
       </c>
       <c r="B106" s="1">
         <v>8891439</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>104</v>
       </c>
       <c r="B107" s="1">
         <v>7315774</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>105</v>
       </c>
       <c r="B108" s="1">
         <v>3718721</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>106</v>
       </c>
       <c r="B109" s="1">
         <v>5087908</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>107</v>
       </c>
       <c r="B110" s="1">
         <v>2247311</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>108</v>
       </c>
       <c r="B111" s="1">
         <v>8388750</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>109</v>
       </c>
       <c r="B112" s="1">
         <v>8192717</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>110</v>
       </c>
       <c r="B113" s="1">
         <v>7432052</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>111</v>
       </c>
       <c r="B114" s="1">
         <v>7083813</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>112</v>
       </c>
       <c r="B115" s="1">
         <v>2976684</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>113</v>
       </c>
@@ -1349,7 +1793,7 @@
         <v>8661836</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>114</v>
       </c>
@@ -1357,7 +1801,7 @@
         <v>9359749</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>115</v>
       </c>
@@ -1365,7 +1809,7 @@
         <v>7606307</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>116</v>
       </c>
@@ -1373,7 +1817,7 @@
         <v>9825275</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>117</v>
       </c>
@@ -1381,7 +1825,7 @@
         <v>2312219</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>118</v>
       </c>
@@ -1389,7 +1833,7 @@
         <v>5268099</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>119</v>
       </c>
@@ -1397,7 +1841,7 @@
         <v>2430785</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>120</v>
       </c>
@@ -1405,7 +1849,7 @@
         <v>4616118</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>121</v>
       </c>
@@ -1413,7 +1857,7 @@
         <v>6914711</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>122</v>
       </c>
@@ -1421,7 +1865,7 @@
         <v>6791019</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>123</v>
       </c>
@@ -1429,7 +1873,7 @@
         <v>4332585</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>124</v>
       </c>
@@ -1437,7 +1881,7 @@
         <v>6715089</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>125</v>
       </c>
@@ -2049,6 +2493,7 @@
       <c r="B204" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assignments/A4/PhoneSurvey.xlsx
+++ b/Assignments/A4/PhoneSurvey.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Survey Response sheet for MACS 30000 (Autumn 2018), Assignment 4</t>
   </si>
@@ -58,34 +58,6 @@
     <t>Repub</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
-  <si>
-    <t>Dem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Repub</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Repub</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Repub</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -100,6 +72,7 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -461,7 +434,7 @@
   <dimension ref="A1:E204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -589,7 +562,7 @@
         <v>5087341</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -635,12 +608,6 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16">
-        <v>36</v>
-      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -1000,7 +967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>46</v>
       </c>
@@ -1011,7 +978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>47</v>
       </c>
@@ -1019,16 +986,10 @@
         <v>7441722</v>
       </c>
       <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>48</v>
       </c>
@@ -1039,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>49</v>
       </c>
@@ -1050,7 +1011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>50</v>
       </c>
@@ -1060,14 +1021,8 @@
       <c r="C53">
         <v>1</v>
       </c>
-      <c r="D53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>51</v>
       </c>
@@ -1078,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>52</v>
       </c>
@@ -1089,7 +1044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>53</v>
       </c>
@@ -1100,7 +1055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>54</v>
       </c>
@@ -1111,7 +1066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>55</v>
       </c>
@@ -1122,7 +1077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>56</v>
       </c>
@@ -1133,7 +1088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>57</v>
       </c>
@@ -1144,7 +1099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>58</v>
       </c>
@@ -1155,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>59</v>
       </c>
@@ -1165,14 +1120,8 @@
       <c r="C62">
         <v>1</v>
       </c>
-      <c r="D62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>60</v>
       </c>
@@ -1183,7 +1132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>61</v>
       </c>
@@ -1194,7 +1143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>62</v>
       </c>
@@ -1205,7 +1154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>63</v>
       </c>
@@ -1216,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>64</v>
       </c>
@@ -1227,7 +1176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>65</v>
       </c>
@@ -1238,7 +1187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>66</v>
       </c>
@@ -1249,7 +1198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>67</v>
       </c>
@@ -1260,7 +1209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>68</v>
       </c>
@@ -1268,16 +1217,10 @@
         <v>9177932</v>
       </c>
       <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>69</v>
       </c>
@@ -1288,7 +1231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>70</v>
       </c>
@@ -1299,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>71</v>
       </c>
@@ -1310,7 +1253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>72</v>
       </c>
@@ -1321,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>73</v>
       </c>
@@ -1332,7 +1275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>74</v>
       </c>
@@ -1343,7 +1286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>75</v>
       </c>
@@ -1354,7 +1297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>76</v>
       </c>
@@ -1365,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>77</v>
       </c>
@@ -1431,10 +1374,10 @@
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E85">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -1546,12 +1489,6 @@
       <c r="C95">
         <v>1</v>
       </c>
-      <c r="D95" t="s">
-        <v>12</v>
-      </c>
-      <c r="E95">
-        <v>22</v>
-      </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
@@ -1630,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E102">
         <v>50</v>
@@ -1746,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>110</v>
       </c>
@@ -1757,7 +1694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>111</v>
       </c>
@@ -1765,10 +1702,10 @@
         <v>7083813</v>
       </c>
       <c r="C114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>112</v>
       </c>
@@ -1778,115 +1715,148 @@
       <c r="C115">
         <v>1</v>
       </c>
-      <c r="D115" t="s">
-        <v>14</v>
-      </c>
-      <c r="E115">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>113</v>
       </c>
       <c r="B116" s="1">
         <v>8661836</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>114</v>
       </c>
       <c r="B117" s="1">
         <v>9359749</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>115</v>
       </c>
       <c r="B118" s="1">
         <v>7606307</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>116</v>
       </c>
       <c r="B119" s="1">
         <v>9825275</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>117</v>
       </c>
       <c r="B120" s="1">
         <v>2312219</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>118</v>
       </c>
       <c r="B121" s="1">
         <v>5268099</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>119</v>
       </c>
       <c r="B122" s="1">
         <v>2430785</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>120</v>
       </c>
       <c r="B123" s="1">
         <v>4616118</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>121</v>
       </c>
       <c r="B124" s="1">
         <v>6914711</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>122</v>
       </c>
       <c r="B125" s="1">
         <v>6791019</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>123</v>
       </c>
       <c r="B126" s="1">
         <v>4332585</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>124</v>
       </c>
       <c r="B127" s="1">
         <v>6715089</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>125</v>
       </c>
       <c r="B128" s="1">
         <v>9087058</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
